--- a/testData/test_me_in_automation.xlsx
+++ b/testData/test_me_in_automation.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
